--- a/minmetals/工作记录/2025年01月工时确认单.xlsx
+++ b/minmetals/工作记录/2025年01月工时确认单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13320" tabRatio="500"/>
+    <workbookView windowWidth="22400" windowHeight="9550" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2025年1月" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>赛迪信息工时申报表</t>
   </si>
@@ -57,6 +57,49 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>干部管理数据开发
+采购节资率模型分析</t>
+  </si>
+  <si>
+    <t>干部管理数据开发
+采购节资率模型分析与开发</t>
+  </si>
+  <si>
+    <t>干部监督数据开发
+采购节资率模型讨论</t>
+  </si>
+  <si>
+    <t>干部管理数据开发
+干部管理、干部监督的大屏结果表达梦同步</t>
+  </si>
+  <si>
+    <t>干部监督数据开发
+司法大数据设计、测试材料说明</t>
+  </si>
+  <si>
+    <t>干部管理数据开发
+采购节资率讨论会
+干部管理大屏后端适配联调</t>
+  </si>
+  <si>
+    <t>干部监督数据开发
+中冶干部数据共享开发</t>
+  </si>
+  <si>
+    <t>干部监督数据开发
+整理治理平台数据表归档文件夹
+干部管理大屏后端适配联调</t>
+  </si>
+  <si>
+    <t>干部监督数据开发
+中冶干部数据共享交接
+薪酬效能的大屏结果表达梦同步</t>
+  </si>
+  <si>
+    <t>干部监督数据开发
+项目交接：干部管理、干部监督</t>
   </si>
   <si>
     <t>合计</t>
@@ -764,7 +807,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -772,7 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -821,38 +863,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1391,431 +1420,451 @@
   <sheetPr/>
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.67592592592593" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.675" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="1.65740740740741" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16" style="7" customWidth="1"/>
-    <col min="4" max="4" width="56.0740740740741" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.2685185185185" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.66666666666667" style="8"/>
+    <col min="1" max="1" width="1.65833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16" style="6" customWidth="1"/>
+    <col min="4" max="4" width="56.075" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.2666666666667" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.66666666666667" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17.4" spans="2:6">
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="17.5" spans="2:6">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" ht="11.25" customHeight="1"/>
-    <row r="4" ht="15.6" spans="2:6">
-      <c r="B4" s="6" t="s">
+    <row r="4" ht="16.5" spans="2:6">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="2:6">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B7" s="16">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>45658</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21">
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="29" spans="1:6">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>45659</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21">
+      <c r="D8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="29" spans="1:6">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20">
         <v>3</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>45660</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B10" s="16">
+      <c r="D9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B10" s="15">
         <v>4</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>45661</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B11" s="16">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B11" s="15">
         <v>5</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>45662</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="15" spans="2:6">
-      <c r="B12" s="21">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" ht="29" spans="2:6">
+      <c r="B12" s="20">
         <v>6</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>45663</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B13" s="26">
+      <c r="D12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="29" spans="2:6">
+      <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>45664</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B14" s="26">
+      <c r="D13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="29" spans="2:6">
+      <c r="B14" s="20">
         <v>8</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>45665</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21">
+      <c r="D14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="43.5" spans="1:6">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20">
         <v>9</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>45666</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21">
+      <c r="D15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="29" spans="1:6">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20">
         <v>10</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>45667</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B17" s="16">
+      <c r="D16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B17" s="15">
         <v>11</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>45668</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B18" s="16">
+      <c r="D17" s="24"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B18" s="15">
         <v>12</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>45669</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" ht="15" spans="2:6">
-      <c r="B19" s="21">
+      <c r="D18" s="25"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" ht="43.5" spans="2:6">
+      <c r="B19" s="20">
         <v>13</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>45670</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B20" s="26">
+      <c r="D19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="43.5" spans="2:6">
+      <c r="B20" s="20">
         <v>14</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>45671</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B21" s="26">
+      <c r="D20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="29" spans="2:6">
+      <c r="B21" s="20">
         <v>15</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>45672</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21">
+      <c r="D21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="14.5" spans="1:6">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20">
         <v>16</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>45673</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21">
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="14.5" spans="1:6">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20">
         <v>17</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>45674</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B24" s="16">
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B24" s="15">
         <v>18</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>45675</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B25" s="16">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B25" s="15">
         <v>19</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>45676</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" ht="15" spans="2:6">
-      <c r="B26" s="21">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" ht="14.5" spans="2:6">
+      <c r="B26" s="20">
         <v>20</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>45677</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B27" s="26">
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B27" s="20">
         <v>21</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>45678</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B28" s="26">
+      <c r="D27" s="27"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B28" s="20">
         <v>22</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>45679</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20">
         <v>23</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>45680</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21">
+      <c r="D29" s="28"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="14.5" spans="1:6">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20">
         <v>24</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>45681</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B31" s="16">
+      <c r="D30" s="28"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B31" s="15">
         <v>25</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="16">
         <v>45682</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15" spans="2:6">
-      <c r="B32" s="16">
+      <c r="D31" s="29"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B32" s="15">
         <v>26</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>45683</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" ht="15" spans="2:6">
-      <c r="B33" s="21">
+      <c r="D32" s="29"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" ht="14.5" spans="2:6">
+      <c r="B33" s="20">
         <v>27</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>45684</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B34" s="26">
+      <c r="D33" s="28"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B34" s="20">
         <v>28</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>45685</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="15" spans="2:6">
-      <c r="B35" s="26">
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="14.5" spans="2:6">
+      <c r="B35" s="20">
         <v>29</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>45686</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="15" spans="1:6">
-      <c r="A36" s="5"/>
-      <c r="B36" s="21">
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="14.5" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="20">
         <v>30</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="21">
         <v>45687</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" s="4" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A37" s="36"/>
-      <c r="B37" s="21">
+      <c r="A37" s="30"/>
+      <c r="B37" s="20">
         <v>31</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="21">
         <v>45688</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" s="4" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A38" s="36"/>
-      <c r="B38" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="4:4">
-      <c r="D40" s="39" t="s">
-        <v>11</v>
+      <c r="D40" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="30.75" customHeight="1" spans="4:4">
-      <c r="D41" s="39" t="s">
-        <v>12</v>
+      <c r="D41" s="33" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
